--- a/data/trans_orig/P1407-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1407-Habitat-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7859</v>
+        <v>8028</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00321162689186915</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01117230924414054</v>
+        <v>0.0114116832903497</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -763,19 +763,19 @@
         <v>20193</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11950</v>
+        <v>12296</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30951</v>
+        <v>32054</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0289698155954858</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01714416290091605</v>
+        <v>0.01763954144382609</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04440331444129221</v>
+        <v>0.0459853292875437</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -784,19 +784,19 @@
         <v>22453</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14312</v>
+        <v>14112</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33983</v>
+        <v>34633</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01603169266643746</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01021895887703484</v>
+        <v>0.01007627058144254</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02426491376882064</v>
+        <v>0.02472898928252803</v>
       </c>
     </row>
     <row r="5">
@@ -813,7 +813,7 @@
         <v>701210</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>695610</v>
+        <v>695441</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>703469</v>
@@ -822,7 +822,7 @@
         <v>0.9967883731081308</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9888276907558595</v>
+        <v>0.9885883167096504</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -834,19 +834,19 @@
         <v>676857</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>666099</v>
+        <v>664996</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>685100</v>
+        <v>684754</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9710301844045142</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9555966855587079</v>
+        <v>0.9540146707124563</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9828558370990841</v>
+        <v>0.9823604585561739</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1304</v>
@@ -855,19 +855,19 @@
         <v>1378066</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1366536</v>
+        <v>1365886</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1386207</v>
+        <v>1386407</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9839683073335626</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9757350862311793</v>
+        <v>0.9752710107174722</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9897810411229652</v>
+        <v>0.9899237294185574</v>
       </c>
     </row>
     <row r="6">
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4187</v>
+        <v>4902</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0009649221454138476</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.00411310808719885</v>
+        <v>0.004815796156031989</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -983,16 +983,16 @@
         <v>11976</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30912</v>
+        <v>30373</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01993094813080508</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01165254392784074</v>
+        <v>0.01165169944641407</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03007638392907994</v>
+        <v>0.0295514386337401</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -1001,19 +1001,19 @@
         <v>21467</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13806</v>
+        <v>13127</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31841</v>
+        <v>33120</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01049356442135861</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006748437745652566</v>
+        <v>0.006416774859354322</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01556457295972881</v>
+        <v>0.01618961699446778</v>
       </c>
     </row>
     <row r="8">
@@ -1030,7 +1030,7 @@
         <v>1016965</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1013760</v>
+        <v>1013045</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>1017947</v>
@@ -1039,7 +1039,7 @@
         <v>0.9990350778545861</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9958868919128019</v>
+        <v>0.995184203843968</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1051,7 +1051,7 @@
         <v>1007306</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>996879</v>
+        <v>997418</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>1015815</v>
@@ -1060,10 +1060,10 @@
         <v>0.9800690518691949</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.96992361607092</v>
+        <v>0.9704485613662599</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9883474560721593</v>
+        <v>0.988348300553586</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1853</v>
@@ -1072,19 +1072,19 @@
         <v>2024271</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2013897</v>
+        <v>2012618</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2031932</v>
+        <v>2032611</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9895064355786414</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9844354270402713</v>
+        <v>0.9838103830055323</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9932515622543474</v>
+        <v>0.9935832251406457</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>3037</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7203</v>
+        <v>8198</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004009140808157456</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001313013955987514</v>
+        <v>0.001319599661702321</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.009507784762991437</v>
+        <v>0.01082086891727094</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1197,19 +1197,19 @@
         <v>15255</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8593</v>
+        <v>8932</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26452</v>
+        <v>24124</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01962846605758698</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01105710578677118</v>
+        <v>0.01149326107810792</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03403630364284745</v>
+        <v>0.03104027641365257</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1218,19 +1218,19 @@
         <v>18292</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10867</v>
+        <v>10276</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28181</v>
+        <v>28196</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01191828517304121</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007080458559040371</v>
+        <v>0.006695517420897892</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01836124130194151</v>
+        <v>0.01837115222930927</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>754586</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>750420</v>
+        <v>749425</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>756628</v>
+        <v>756623</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9959908591918425</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9904922152370086</v>
+        <v>0.989179131082729</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9986869860440125</v>
+        <v>0.9986804003382976</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>691</v>
@@ -1268,19 +1268,19 @@
         <v>761919</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>750722</v>
+        <v>753050</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>768581</v>
+        <v>768242</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9803715339424131</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9659636963571524</v>
+        <v>0.9689597235863474</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.988942894213228</v>
+        <v>0.9885067389218921</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1377</v>
@@ -1289,19 +1289,19 @@
         <v>1516505</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1506616</v>
+        <v>1506601</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1523930</v>
+        <v>1524521</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9880817148269588</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9816387586980585</v>
+        <v>0.9816288477706907</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9929195414409598</v>
+        <v>0.9933044825791021</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>4014</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1041</v>
+        <v>993</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10047</v>
+        <v>9220</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004235228453732423</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001098411296578951</v>
+        <v>0.001047449383190626</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01060100356657517</v>
+        <v>0.009727984139569105</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -1414,19 +1414,19 @@
         <v>15684</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9498</v>
+        <v>9672</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25506</v>
+        <v>26361</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01491041405932321</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009029724044243251</v>
+        <v>0.009194361322386053</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02424742577492522</v>
+        <v>0.0250606062518612</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -1435,19 +1435,19 @@
         <v>19698</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11806</v>
+        <v>11963</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>31313</v>
+        <v>30155</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009850857450336741</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005904054894676106</v>
+        <v>0.005982432870565607</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01565920479748089</v>
+        <v>0.01508026237612807</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>943725</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>937692</v>
+        <v>938519</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>946698</v>
+        <v>946746</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9957647715462675</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9893989964334248</v>
+        <v>0.9902720158604311</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9989015887034209</v>
+        <v>0.9989525506168093</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>988</v>
@@ -1485,19 +1485,19 @@
         <v>1036217</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1026395</v>
+        <v>1025540</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1042403</v>
+        <v>1042229</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9850895859406767</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9757525742250748</v>
+        <v>0.974939393748139</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9909702759557567</v>
+        <v>0.990805638677614</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1894</v>
@@ -1506,19 +1506,19 @@
         <v>1979942</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1968327</v>
+        <v>1969485</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1987834</v>
+        <v>1987677</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9901491425496632</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9843407952025192</v>
+        <v>0.984919737623872</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.994095945105324</v>
+        <v>0.9940175671294342</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>10293</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5230</v>
+        <v>5117</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19041</v>
+        <v>18603</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003003646138868004</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001526222729485489</v>
+        <v>0.001493182563042754</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.005556486535347757</v>
+        <v>0.005428788648755527</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>66</v>
@@ -1631,19 +1631,19 @@
         <v>71617</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>55593</v>
+        <v>55097</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>91741</v>
+        <v>89973</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02015165018109078</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01564266450669088</v>
+        <v>0.01550322524081104</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02581398612333268</v>
+        <v>0.02531665503949433</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>76</v>
@@ -1652,19 +1652,19 @@
         <v>81910</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>65523</v>
+        <v>65340</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>103727</v>
+        <v>101957</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01173380327810851</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009386367129062349</v>
+        <v>0.009360140195350371</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01485908806244167</v>
+        <v>0.01460561310919648</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>3416486</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3407738</v>
+        <v>3408176</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3421549</v>
+        <v>3421662</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9969963538611319</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9944435134646521</v>
+        <v>0.9945712113512445</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9984737772705145</v>
+        <v>0.9985068174369572</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3229</v>
@@ -1702,19 +1702,19 @@
         <v>3482299</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3462175</v>
+        <v>3463943</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3498323</v>
+        <v>3498819</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9798483498189092</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9741860138766673</v>
+        <v>0.9746833449605057</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9843573354933091</v>
+        <v>0.984496774759189</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6428</v>
@@ -1723,19 +1723,19 @@
         <v>6898784</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6876967</v>
+        <v>6878737</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6915171</v>
+        <v>6915354</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9882661967218915</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.985140911937558</v>
+        <v>0.9853943868908035</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9906136328709376</v>
+        <v>0.9906398598046496</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>8138</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3670</v>
+        <v>3761</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15563</v>
+        <v>16004</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01206049085745881</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005438940752960868</v>
+        <v>0.005573961779561864</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02306245367559956</v>
+        <v>0.02371642338015715</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -2088,19 +2088,19 @@
         <v>12799</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6550</v>
+        <v>7223</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22124</v>
+        <v>23213</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01902280972840199</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009734894830026698</v>
+        <v>0.01073551987932861</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0328811173245013</v>
+        <v>0.03449975861354757</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -2109,19 +2109,19 @@
         <v>20938</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12816</v>
+        <v>12803</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31136</v>
+        <v>32292</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01553658472236937</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009510233255307747</v>
+        <v>0.009500561194838539</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0231040247930627</v>
+        <v>0.02396182400872304</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>666662</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>659237</v>
+        <v>658796</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>671130</v>
+        <v>671039</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9879395091425411</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9769375463244007</v>
+        <v>0.9762835766198429</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9945610592470392</v>
+        <v>0.9944260382204382</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>654</v>
@@ -2159,19 +2159,19 @@
         <v>660040</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>650715</v>
+        <v>649626</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>666289</v>
+        <v>665616</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.980977190271598</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9671188826754987</v>
+        <v>0.9655002413864524</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9902651051699732</v>
+        <v>0.9892644801206714</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1298</v>
@@ -2180,19 +2180,19 @@
         <v>1326701</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1316503</v>
+        <v>1315347</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1334823</v>
+        <v>1334836</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9844634152776306</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9768959752069373</v>
+        <v>0.9760381759912766</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9904897667446922</v>
+        <v>0.9904994388051612</v>
       </c>
     </row>
     <row r="6">
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4955</v>
+        <v>3497</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0008476815810325838</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.004846099112618555</v>
+        <v>0.003420501998294849</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -2305,19 +2305,19 @@
         <v>14841</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8243</v>
+        <v>8860</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25294</v>
+        <v>24994</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01422990492409445</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007904116901102522</v>
+        <v>0.008495197012354931</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02425350120497848</v>
+        <v>0.02396591665640508</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -2326,19 +2326,19 @@
         <v>15707</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9287</v>
+        <v>8892</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26557</v>
+        <v>25551</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007605148986895973</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004496566386866635</v>
+        <v>0.00430526712263422</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01285857861065019</v>
+        <v>0.01237127538655464</v>
       </c>
     </row>
     <row r="8">
@@ -2355,7 +2355,7 @@
         <v>1021564</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1017476</v>
+        <v>1018934</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>1022431</v>
@@ -2364,7 +2364,7 @@
         <v>0.9991523184189675</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9951539008873813</v>
+        <v>0.9965794980017052</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2376,19 +2376,19 @@
         <v>1028072</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1017619</v>
+        <v>1017919</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1034670</v>
+        <v>1034053</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9857700950759055</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9757464987950235</v>
+        <v>0.9760340833435954</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9920958830988975</v>
+        <v>0.9915048029876453</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1914</v>
@@ -2397,19 +2397,19 @@
         <v>2049637</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2038787</v>
+        <v>2039793</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2056057</v>
+        <v>2056452</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.992394851013104</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9871414213893499</v>
+        <v>0.9876287246134454</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9955034336131335</v>
+        <v>0.9956947328773659</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>2780</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>855</v>
+        <v>863</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7295</v>
+        <v>8328</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00365984618908849</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001126124580615953</v>
+        <v>0.001135885553671644</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.009604305843614261</v>
+        <v>0.01096454119645455</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -2522,19 +2522,19 @@
         <v>6970</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2524</v>
+        <v>2305</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14853</v>
+        <v>14158</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008878878330596343</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00321546244424681</v>
+        <v>0.00293641684499559</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01892122960741959</v>
+        <v>0.01803508986079883</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -2543,19 +2543,19 @@
         <v>9750</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4959</v>
+        <v>4626</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18181</v>
+        <v>19066</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006312374233243454</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003210558924484648</v>
+        <v>0.002995104280613694</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01177091913317886</v>
+        <v>0.0123436241621979</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>756772</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>752257</v>
+        <v>751224</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>758697</v>
+        <v>758689</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9963401538109115</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.990395694156386</v>
+        <v>0.989035458803545</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.998873875419384</v>
+        <v>0.9988641144463284</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>730</v>
@@ -2593,19 +2593,19 @@
         <v>778041</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>770158</v>
+        <v>770853</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>782487</v>
+        <v>782706</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9911211216694037</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9810787703925805</v>
+        <v>0.9819649101392012</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9967845375557532</v>
+        <v>0.9970635831550044</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1423</v>
@@ -2614,19 +2614,19 @@
         <v>1534813</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1526382</v>
+        <v>1525497</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1539604</v>
+        <v>1539937</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9936876257667565</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9882290808668213</v>
+        <v>0.9876563758378021</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9967894410755156</v>
+        <v>0.9970048957193863</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>4777</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1240</v>
+        <v>1791</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10981</v>
+        <v>10266</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005095111441617818</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001322974486789159</v>
+        <v>0.001909873527150346</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01171207889946522</v>
+        <v>0.01094939750157524</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -2739,19 +2739,19 @@
         <v>24521</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14992</v>
+        <v>16016</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38158</v>
+        <v>38201</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02349257143732787</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01436292883134389</v>
+        <v>0.01534450563598567</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03655719039696758</v>
+        <v>0.03659912076149931</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -2760,19 +2760,19 @@
         <v>29298</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19582</v>
+        <v>19195</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>42319</v>
+        <v>43834</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01478694846334455</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009883369706975393</v>
+        <v>0.009687672752701109</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02135863089926514</v>
+        <v>0.02212315635816687</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>932790</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>926586</v>
+        <v>927301</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>936327</v>
+        <v>935776</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9949048885583822</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9882879211005346</v>
+        <v>0.9890506024984248</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9986770255132109</v>
+        <v>0.9980901264728497</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>939</v>
@@ -2810,19 +2810,19 @@
         <v>1019258</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1005621</v>
+        <v>1005578</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1028787</v>
+        <v>1027763</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9765074285626721</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9634428096030324</v>
+        <v>0.9634008792385016</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9856370711686561</v>
+        <v>0.9846554943640144</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1866</v>
@@ -2831,19 +2831,19 @@
         <v>1952048</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1939027</v>
+        <v>1937512</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1961764</v>
+        <v>1962151</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9852130515366555</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.978641369100735</v>
+        <v>0.9778768436418335</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9901166302930245</v>
+        <v>0.9903123272472989</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>16562</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9755</v>
+        <v>10172</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26133</v>
+        <v>26604</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004879274846283883</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002873844096630208</v>
+        <v>0.002996860386887679</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.007699113392036796</v>
+        <v>0.007837639328250353</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>51</v>
@@ -2956,19 +2956,19 @@
         <v>59131</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44484</v>
+        <v>43633</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>77477</v>
+        <v>76641</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01668224299399591</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01254992486003398</v>
+        <v>0.01230997186565154</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02185821162063385</v>
+        <v>0.02162219928792054</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>68</v>
@@ -2977,19 +2977,19 @@
         <v>75693</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>60248</v>
+        <v>59391</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>96449</v>
+        <v>96026</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01090849597403151</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008682720552651549</v>
+        <v>0.008559122334823345</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01389972972619363</v>
+        <v>0.0138387422318939</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>3377788</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3368217</v>
+        <v>3367746</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3384595</v>
+        <v>3384178</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9951207251537161</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9923008866079628</v>
+        <v>0.9921623606717497</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9971261559033698</v>
+        <v>0.9970031396131124</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3287</v>
@@ -3027,19 +3027,19 @@
         <v>3485411</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3467065</v>
+        <v>3467901</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3500058</v>
+        <v>3500909</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9833177570060041</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9781417883793663</v>
+        <v>0.9783778007120795</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9874500751399662</v>
+        <v>0.9876900281343483</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6501</v>
@@ -3048,19 +3048,19 @@
         <v>6863199</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6842443</v>
+        <v>6842866</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6878644</v>
+        <v>6879501</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9890915040259685</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9861002702738065</v>
+        <v>0.9861612577681063</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9913172794473485</v>
+        <v>0.9914408776651767</v>
       </c>
     </row>
     <row r="18">
